--- a/Programas evaluados.xlsx
+++ b/Programas evaluados.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40839DF8-C2B5-4317-8420-DED950FC8BCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98E9B7-497C-4C88-85E6-14B00EC1B25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaciónDeDatos_Año_de_protocolo">#N/A</definedName>
@@ -27,9 +28,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId2"/>
         <x14:slicerCache r:id="rId3"/>
         <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="733">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -2194,13 +2195,55 @@
   </si>
   <si>
     <t>Equipamientos Comunitarios</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#7ABC32</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>#FFD966</t>
+  </si>
+  <si>
+    <t>#D9D9D9</t>
+  </si>
+  <si>
+    <t>#ED7D31</t>
+  </si>
+  <si>
+    <t>#C2E59B</t>
+  </si>
+  <si>
+    <t>#F6BA92</t>
+  </si>
+  <si>
+    <t>#ACB9CA</t>
+  </si>
+  <si>
+    <t>Desempeño</t>
+  </si>
+  <si>
+    <t>Recomendación</t>
+  </si>
+  <si>
+    <t>Sin Información</t>
+  </si>
+  <si>
+    <t>#B40000</t>
+  </si>
+  <si>
+    <t>Tipo Clasificación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2342,8 +2385,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2523,6 +2572,60 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ABC32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E59B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6BA92"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB40000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2684,7 +2787,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2692,6 +2795,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2738,9 +2850,6 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2846,8 +2955,23 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB40000"/>
+      <color rgb="FFACB9CA"/>
+      <color rgb="FFF6BA92"/>
+      <color rgb="FFC2E59B"/>
+      <color rgb="FFED7D31"/>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFFFD966"/>
+      <color rgb="FF7ABC32"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2874,8 +2998,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Año de protocolo">
@@ -2898,7 +3022,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2952,8 +3076,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Servicio público">
@@ -2976,7 +3100,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3030,8 +3154,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Clasificación">
@@ -3054,7 +3178,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3146,18 +3270,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC9EEE18-3009-4F4F-B639-F8378C5981A3}" name="Programas_Evaluados" displayName="Programas_Evaluados" ref="A10:F614" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E999BD45-3E11-48FB-8540-A448336962AB}" name="Clasificación" displayName="Clasificación" ref="B3:D17" totalsRowShown="0">
+  <autoFilter ref="B3:D17" xr:uid="{47835117-072C-4ABE-8B8A-C9E423C1FD1A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9B067220-505B-4863-A051-8D641855E4A9}" name="Clasificación"/>
+    <tableColumn id="2" xr3:uid="{33B8226A-EDAE-4F97-BA21-23A545E13ADF}" name="Tipo Clasificación"/>
+    <tableColumn id="3" xr3:uid="{9802E368-CCA0-4B77-ADDE-20A14FDC343D}" name="Color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC9EEE18-3009-4F4F-B639-F8378C5981A3}" name="Programas_Evaluados" displayName="Programas_Evaluados" ref="A10:F614" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A10:F614" xr:uid="{7F421904-E6CD-45AE-918A-317225010A6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:F593">
     <sortCondition descending="1" ref="A10:A614"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A91E3CCA-362A-4545-B910-17CE9B9F911B}" name="Año de protocolo" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{60F05DF3-BA51-4B66-B2BA-2AD5F198FBA9}" name="Programa / Institución" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{63017CED-5553-46D3-A13B-D1E27A8F7566}" name="Línea de evaluación" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4A0E6C47-7424-46D0-BEA1-6D4CC8F1ECE6}" name="Ministerio" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{09EAC091-BCC7-48B3-ABC3-17F4C2C5B7D0}" name="Servicio público" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C642793E-D0F3-4E31-92CD-0A37EAD15A37}" name="Clasificación" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A91E3CCA-362A-4545-B910-17CE9B9F911B}" name="Año de protocolo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{60F05DF3-BA51-4B66-B2BA-2AD5F198FBA9}" name="Programa / Institución" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{63017CED-5553-46D3-A13B-D1E27A8F7566}" name="Línea de evaluación" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4A0E6C47-7424-46D0-BEA1-6D4CC8F1ECE6}" name="Ministerio" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{09EAC091-BCC7-48B3-ABC3-17F4C2C5B7D0}" name="Servicio público" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C642793E-D0F3-4E31-92CD-0A37EAD15A37}" name="Clasificación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3459,10 +3595,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3DFD23-E687-43C7-86D5-E491E43BEA46}">
+  <dimension ref="B3:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>728</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>728</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" t="s">
+        <v>729</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" t="s">
+        <v>729</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" t="s">
+        <v>729</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>729</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>729</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:F614"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>

--- a/Programas evaluados.xlsx
+++ b/Programas evaluados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98E9B7-497C-4C88-85E6-14B00EC1B25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43F5E9-CD44-4EF8-885D-FA043179A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3599,7 +3599,7 @@
   <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Programas evaluados.xlsx
+++ b/Programas evaluados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43F5E9-CD44-4EF8-885D-FA043179A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4669357F-6CCD-452B-B070-316E303DDF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="728">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -2206,44 +2206,29 @@
     <t>Color</t>
   </si>
   <si>
-    <t>#FFD966</t>
-  </si>
-  <si>
     <t>#D9D9D9</t>
   </si>
   <si>
-    <t>#ED7D31</t>
-  </si>
-  <si>
-    <t>#C2E59B</t>
-  </si>
-  <si>
-    <t>#F6BA92</t>
-  </si>
-  <si>
     <t>#ACB9CA</t>
   </si>
   <si>
-    <t>Desempeño</t>
-  </si>
-  <si>
-    <t>Recomendación</t>
-  </si>
-  <si>
-    <t>Sin Información</t>
-  </si>
-  <si>
-    <t>#B40000</t>
-  </si>
-  <si>
     <t>Tipo Clasificación</t>
+  </si>
+  <si>
+    <t>#FFC000</t>
+  </si>
+  <si>
+    <t>#009A46</t>
+  </si>
+  <si>
+    <t>Color2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2385,14 +2370,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2586,31 +2565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2E59B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6BA92"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,7 +2577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009A46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2787,7 +2748,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2795,15 +2756,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2849,7 +2815,32 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3270,30 +3261,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E999BD45-3E11-48FB-8540-A448336962AB}" name="Clasificación" displayName="Clasificación" ref="B3:D17" totalsRowShown="0">
-  <autoFilter ref="B3:D17" xr:uid="{47835117-072C-4ABE-8B8A-C9E423C1FD1A}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E999BD45-3E11-48FB-8540-A448336962AB}" name="Clasificación" displayName="Clasificación" ref="B3:E17" totalsRowShown="0">
+  <autoFilter ref="B3:E17" xr:uid="{47835117-072C-4ABE-8B8A-C9E423C1FD1A}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9B067220-505B-4863-A051-8D641855E4A9}" name="Clasificación"/>
     <tableColumn id="2" xr3:uid="{33B8226A-EDAE-4F97-BA21-23A545E13ADF}" name="Tipo Clasificación"/>
     <tableColumn id="3" xr3:uid="{9802E368-CCA0-4B77-ADDE-20A14FDC343D}" name="Color"/>
+    <tableColumn id="4" xr3:uid="{859B5B95-8A40-44C7-8F7A-6F1E92FB39A0}" name="Color2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC9EEE18-3009-4F4F-B639-F8378C5981A3}" name="Programas_Evaluados" displayName="Programas_Evaluados" ref="A10:F614" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC9EEE18-3009-4F4F-B639-F8378C5981A3}" name="Programas_Evaluados" displayName="Programas_Evaluados" ref="A10:F614" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A10:F614" xr:uid="{7F421904-E6CD-45AE-918A-317225010A6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:F593">
     <sortCondition descending="1" ref="A10:A614"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A91E3CCA-362A-4545-B910-17CE9B9F911B}" name="Año de protocolo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{60F05DF3-BA51-4B66-B2BA-2AD5F198FBA9}" name="Programa / Institución" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{63017CED-5553-46D3-A13B-D1E27A8F7566}" name="Línea de evaluación" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4A0E6C47-7424-46D0-BEA1-6D4CC8F1ECE6}" name="Ministerio" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{09EAC091-BCC7-48B3-ABC3-17F4C2C5B7D0}" name="Servicio público" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C642793E-D0F3-4E31-92CD-0A37EAD15A37}" name="Clasificación" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A91E3CCA-362A-4545-B910-17CE9B9F911B}" name="Año de protocolo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{60F05DF3-BA51-4B66-B2BA-2AD5F198FBA9}" name="Programa / Institución" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{63017CED-5553-46D3-A13B-D1E27A8F7566}" name="Línea de evaluación" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4A0E6C47-7424-46D0-BEA1-6D4CC8F1ECE6}" name="Ministerio" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{09EAC091-BCC7-48B3-ABC3-17F4C2C5B7D0}" name="Servicio público" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C642793E-D0F3-4E31-92CD-0A37EAD15A37}" name="Clasificación" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3596,181 +3588,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3DFD23-E687-43C7-86D5-E491E43BEA46}">
-  <dimension ref="B3:D17"/>
+  <dimension ref="B3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>352</v>
       </c>
-      <c r="C4" t="s">
-        <v>729</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
-        <v>728</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>728</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
-        <v>728</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>728</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>330</v>
       </c>
-      <c r="C11" t="s">
-        <v>729</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>157</v>
       </c>
-      <c r="C12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>311</v>
       </c>
-      <c r="C13" t="s">
-        <v>729</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>309</v>
       </c>
-      <c r="C14" t="s">
-        <v>729</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" t="s">
-        <v>729</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>400</v>
       </c>
-      <c r="C16" t="s">
-        <v>729</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>624</v>
       </c>
-      <c r="C17" t="s">
-        <v>730</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>727</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
